--- a/wxdgaming.game.basic/src/main/cfg/怪物信息.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/怪物信息.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_monster" sheetId="4" r:id="rId1"/>
@@ -123,10 +123,10 @@
     <t>long</t>
   </si>
   <si>
-    <t>wxdgaming.game.bean.attr.AttrInfo</t>
-  </si>
-  <si>
-    <t>List&lt;wxdgaming.game.bean.goods.ItemCfg&gt;</t>
+    <t>wxdgaming.game.server.bean.attr.AttrInfo</t>
+  </si>
+  <si>
+    <t>wxdgaming.boot2.core.lang.ConfigString</t>
   </si>
   <si>
     <t>主键id</t>
@@ -159,7 +159,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":100}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":1},{"cfg":10001,"num":1}]</t>
+    <t>1|10,3|10,5|10</t>
   </si>
   <si>
     <t>蜜蜂</t>
@@ -171,7 +171,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":101}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":2},{"cfg":10002,"num":1}]</t>
+    <t>1|10,3|10,5|11</t>
   </si>
   <si>
     <t>蟑螂</t>
@@ -183,7 +183,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":102}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":3},{"cfg":10003,"num":1}]</t>
+    <t>1|10,3|10,5|12</t>
   </si>
   <si>
     <t>黄雀</t>
@@ -195,7 +195,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":103}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":4},{"cfg":10004,"num":1}]</t>
+    <t>1|10,3|10,5|13</t>
   </si>
   <si>
     <t>兔子</t>
@@ -207,7 +207,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":104}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":5},{"cfg":10005,"num":1}]</t>
+    <t>1|10,3|10,5|14</t>
   </si>
   <si>
     <t>公鸡</t>
@@ -219,7 +219,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":105}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":6},{"cfg":10006,"num":1}]</t>
+    <t>1|10,3|10,5|15</t>
   </si>
   <si>
     <t>野狗</t>
@@ -231,7 +231,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":106}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":7},{"cfg":10007,"num":1}]</t>
+    <t>1|10,3|10,5|16</t>
   </si>
   <si>
     <t>小软</t>
@@ -243,7 +243,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":107}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":8},{"cfg":10001,"num":1}]</t>
+    <t>1|10,3|10,5|17</t>
   </si>
   <si>
     <t>猎豹</t>
@@ -255,7 +255,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":108}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":9},{"cfg":10001,"num":1}]</t>
+    <t>1|10,3|10,5|18</t>
   </si>
   <si>
     <t>老虎</t>
@@ -267,7 +267,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":109}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":10},{"cfg":10001,"num":1}]</t>
+    <t>1|10,3|10,5|19</t>
   </si>
   <si>
     <t>蟒蛇</t>
@@ -279,7 +279,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":110}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":11},{"cfg":10006,"num":1}]</t>
+    <t>1|10,3|10,5|20</t>
   </si>
   <si>
     <t>河马</t>
@@ -291,7 +291,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":111}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":12},{"cfg":10007,"num":1}]</t>
+    <t>1|10,3|10,5|21</t>
   </si>
   <si>
     <t>鳄鱼</t>
@@ -303,7 +303,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":112}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":13},{"cfg":10001,"num":1}]</t>
+    <t>1|10,3|10,5|22</t>
   </si>
   <si>
     <t>猛犸象</t>
@@ -315,7 +315,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":113}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":14},{"cfg":10006,"num":1}]</t>
+    <t>1|10,3|10,5|23</t>
   </si>
   <si>
     <t>骷髅头</t>
@@ -327,7 +327,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":114}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":15},{"cfg":10001,"num":1}]</t>
+    <t>1|10,3|10,5|24</t>
   </si>
   <si>
     <t>术士</t>
@@ -339,7 +339,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":115}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":16},{"cfg":10004,"num":1}]</t>
+    <t>1|10,3|10,5|25</t>
   </si>
   <si>
     <t>猎人</t>
@@ -351,7 +351,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":116}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":17},{"cfg":10001,"num":1}]</t>
+    <t>1|10,3|10,5|26</t>
   </si>
   <si>
     <t>刺客</t>
@@ -363,7 +363,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":117}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":18},{"cfg":10004,"num":1}]</t>
+    <t>1|10,3|10,5|27</t>
   </si>
   <si>
     <t>呆呆贼</t>
@@ -375,7 +375,7 @@
     <t>{"MAXHP":100,"体力":100,"攻击":100,"防御":118}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":19},{"cfg":10001,"num":1}]</t>
+    <t>1|10,3|10,5|28</t>
   </si>
 </sst>
 </file>
@@ -547,12 +547,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H27" sqref="H6:H24 H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
